--- a/DataFrame_reconstruido/Lula_artesanal_reconstruido2.xlsx
+++ b/DataFrame_reconstruido/Lula_artesanal_reconstruido2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.396621346473694</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.37351667881012</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1.350412130355835</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1.327307343482971</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1.304202795028687</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1.281098127365112</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.257993578910828</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.234888672828674</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +528,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1.211814403533936</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.188746690750122</v>
       </c>
     </row>
     <row r="12">
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.2245731353759766</v>
+        <v>1.165679216384888</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.5501060485839844</v>
+        <v>1.142611384391785</v>
       </c>
     </row>
     <row r="14">
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>0.8756809234619141</v>
+        <v>1.119540691375732</v>
       </c>
     </row>
     <row r="15">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1.201164245605469</v>
+        <v>1.096457362174988</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1.526708602905273</v>
+        <v>1.073373913764954</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +591,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1.862632751464844</v>
+        <v>1.05028247833252</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>2.207271575927734</v>
+        <v>1.027075529098511</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>2.5518798828125</v>
+        <v>1.003863334655762</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>2.896484375</v>
+        <v>0.9805612564086914</v>
       </c>
     </row>
     <row r="21">
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>3.24110221862793</v>
+        <v>0.9572590589523315</v>
       </c>
     </row>
     <row r="22">
@@ -636,7 +636,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>3.584871292114258</v>
+        <v>0.9340496063232422</v>
       </c>
     </row>
     <row r="23">
@@ -645,7 +645,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>3.92756462097168</v>
+        <v>0.9109313488006592</v>
       </c>
     </row>
     <row r="24">
@@ -654,7 +654,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>4.270994186401367</v>
+        <v>0.8878130912780762</v>
       </c>
     </row>
     <row r="25">
@@ -663,7 +663,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>4.620779037475586</v>
+        <v>0.8646960854530334</v>
       </c>
     </row>
     <row r="26">
@@ -672,7 +672,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>4.974594116210938</v>
+        <v>0.8415777087211609</v>
       </c>
     </row>
     <row r="27">
@@ -681,7 +681,7 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>5.328437805175781</v>
+        <v>0.8184686303138733</v>
       </c>
     </row>
     <row r="28">
@@ -690,7 +690,7 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>5.68910026550293</v>
+        <v>0.7948344945907593</v>
       </c>
     </row>
     <row r="29">
@@ -699,7 +699,7 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>6.050983428955078</v>
+        <v>0.7710702419281006</v>
       </c>
     </row>
     <row r="30">
@@ -707,7 +707,7 @@
         <v>1978</v>
       </c>
       <c r="B30" t="n">
-        <v>2</v>
+        <v>0.8091602921485901</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
@@ -716,7 +716,7 @@
         <v>1979</v>
       </c>
       <c r="B31" t="n">
-        <v>8</v>
+        <v>0.5573248267173767</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
@@ -725,7 +725,7 @@
         <v>1980</v>
       </c>
       <c r="B32" t="n">
-        <v>13</v>
+        <v>0.9103260636329651</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
@@ -734,7 +734,7 @@
         <v>1981</v>
       </c>
       <c r="B33" t="n">
-        <v>14</v>
+        <v>0.7077798843383789</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
@@ -743,7 +743,7 @@
         <v>1982</v>
       </c>
       <c r="B34" t="n">
-        <v>3</v>
+        <v>0.7426900863647461</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
@@ -752,324 +752,360 @@
         <v>1983</v>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>0.6796116232872009</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="B36" t="n">
-        <v>12</v>
+        <v>0.6075581312179565</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="B37" t="n">
-        <v>9</v>
+        <v>0.5623003244400024</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1989</v>
+        <v>1986</v>
       </c>
       <c r="B38" t="n">
-        <v>6</v>
+        <v>0.3362831771373749</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1990</v>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
-        <v>17.4493522644043</v>
-      </c>
+        <v>1987</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4541284441947937</v>
+      </c>
+      <c r="C39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1991</v>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
-        <v>25.70369338989258</v>
-      </c>
+        <v>1988</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4307692348957062</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1992</v>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
-        <v>50.47833633422852</v>
-      </c>
+        <v>1989</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4915824830532074</v>
+      </c>
+      <c r="C41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1993</v>
+        <v>1990</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>94.46338653564453</v>
+        <v>0.5175940990447998</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1994</v>
+        <v>1991</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>137.3977355957031</v>
+        <v>0.5644533038139343</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B44" t="n">
-        <v>165</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>1992</v>
+      </c>
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
+        <v>0.6061815619468689</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B45" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>1993</v>
+      </c>
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
+        <v>0.6501044631004333</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B46" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>1994</v>
+      </c>
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
+        <v>0.6911153793334961</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="B47" t="n">
-        <v>57.5</v>
+        <v>0.7024345993995667</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="B48" t="n">
-        <v>17</v>
+        <v>0.07934782654047012</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="B49" t="n">
-        <v>45.5</v>
+        <v>0.1167227849364281</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="B50" t="n">
-        <v>32</v>
+        <v>0.02362949028611183</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="B51" t="n">
-        <v>31</v>
+        <v>0.1117930710315704</v>
       </c>
       <c r="C51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="B52" t="n">
-        <v>35.5</v>
+        <v>0.00863664411008358</v>
       </c>
       <c r="C52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="B53" t="n">
-        <v>39.5</v>
+        <v>0.1698113232851028</v>
       </c>
       <c r="C53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="B54" t="n">
-        <v>45</v>
+        <v>0.08263305574655533</v>
       </c>
       <c r="C54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="B55" t="n">
-        <v>20.5</v>
+        <v>0.08065268397331238</v>
       </c>
       <c r="C55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="B56" t="n">
-        <v>35.04100036621094</v>
+        <v>0.08292282372713089</v>
       </c>
       <c r="C56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="B57" t="n">
-        <v>7</v>
+        <v>0.08526821434497833</v>
       </c>
       <c r="C57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="B58" t="n">
-        <v>3.727999925613403</v>
+        <v>0.08336168527603149</v>
       </c>
       <c r="C58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="B59" t="n">
-        <v>4.710999965667725</v>
+        <v>0.05225225165486336</v>
       </c>
       <c r="C59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="B60" t="n">
-        <v>11.93900012969971</v>
+        <v>0.01119563635438681</v>
       </c>
       <c r="C60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="B61" t="n">
-        <v>13.80200004577637</v>
+        <v>0.0209825225174427</v>
       </c>
       <c r="C61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="B62" t="n">
-        <v>3.822999954223633</v>
+        <v>0.006202810909599066</v>
       </c>
       <c r="C62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B63" t="n">
-        <v>0.00800000037997961</v>
+        <v>0.01145822554826736</v>
       </c>
       <c r="C63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
-        <v>18.28347396850586</v>
-      </c>
+        <v>2012</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.004745530430227518</v>
+      </c>
+      <c r="C64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="B65" t="n">
-        <v>40.42755126953125</v>
+        <v>0.004936500918120146</v>
       </c>
       <c r="C65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B66" t="n">
-        <v>101.0382995605469</v>
+        <v>0.1040372177958488</v>
       </c>
       <c r="C66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="B67" t="n">
-        <v>89.39240264892578</v>
+        <v>0.001204285770654678</v>
       </c>
       <c r="C67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B68" t="n">
-        <v>80.21074676513672</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
+        <v>2016</v>
+      </c>
+      <c r="B68" t="inlineStr"/>
+      <c r="C68" t="n">
+        <v>0.02429413795471191</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="B69" t="n">
-        <v>37.11550140380859</v>
+        <v>0.02550747618079185</v>
       </c>
       <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.01471138186752796</v>
+      </c>
+      <c r="C70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.01765934005379677</v>
+      </c>
+      <c r="C71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01202032435685396</v>
+      </c>
+      <c r="C72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.02255762368440628</v>
+      </c>
+      <c r="C73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
         <v>2022</v>
       </c>
-      <c r="B70" t="n">
-        <v>42.80265045166016</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
+      <c r="B74" t="n">
+        <v>0.02449242398142815</v>
+      </c>
+      <c r="C74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/DataFrame_reconstruido/Lula_artesanal_reconstruido2.xlsx
+++ b/DataFrame_reconstruido/Lula_artesanal_reconstruido2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1.396621346473694</v>
+        <v>1.647211194038391</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1.37351667881012</v>
+        <v>1.618176341056824</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1.350412130355835</v>
+        <v>1.589137673377991</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1.327307343482971</v>
+        <v>1.560099124908447</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1.304202795028687</v>
+        <v>1.531060576438904</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1.281098127365112</v>
+        <v>1.50202214717865</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1.257993578910828</v>
+        <v>1.472983479499817</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1.234888672828674</v>
+        <v>1.443944931030273</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +528,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1.211814403533936</v>
+        <v>1.414741039276123</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.188746690750122</v>
+        <v>1.385535717010498</v>
       </c>
     </row>
     <row r="12">
@@ -546,7 +546,7 @@
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1.165679216384888</v>
+        <v>1.356334447860718</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +555,7 @@
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1.142611384391785</v>
+        <v>1.327162146568298</v>
       </c>
     </row>
     <row r="14">
@@ -564,7 +564,7 @@
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1.119540691375732</v>
+        <v>1.297724843025208</v>
       </c>
     </row>
     <row r="15">
@@ -573,7 +573,7 @@
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1.096457362174988</v>
+        <v>1.268260836601257</v>
       </c>
     </row>
     <row r="16">
@@ -582,7 +582,7 @@
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1.073373913764954</v>
+        <v>1.238828897476196</v>
       </c>
     </row>
     <row r="17">
@@ -591,7 +591,7 @@
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1.05028247833252</v>
+        <v>1.209417223930359</v>
       </c>
     </row>
     <row r="18">
@@ -600,7 +600,7 @@
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1.027075529098511</v>
+        <v>1.179917454719543</v>
       </c>
     </row>
     <row r="19">
@@ -609,7 +609,7 @@
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1.003863334655762</v>
+        <v>1.150262713432312</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>0.9805612564086914</v>
+        <v>1.120607495307922</v>
       </c>
     </row>
     <row r="21">
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>0.9572590589523315</v>
+        <v>1.090917348861694</v>
       </c>
     </row>
     <row r="22">
@@ -636,7 +636,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>0.9340496063232422</v>
+        <v>1.061176538467407</v>
       </c>
     </row>
     <row r="23">
@@ -645,7 +645,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>0.9109313488006592</v>
+        <v>1.031408905982971</v>
       </c>
     </row>
     <row r="24">
@@ -654,7 +654,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>0.8878130912780762</v>
+        <v>1.001517653465271</v>
       </c>
     </row>
     <row r="25">
@@ -663,7 +663,7 @@
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>0.8646960854530334</v>
+        <v>0.972352921962738</v>
       </c>
     </row>
     <row r="26">
@@ -672,7 +672,7 @@
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>0.8415777087211609</v>
+        <v>0.9435233473777771</v>
       </c>
     </row>
     <row r="27">
@@ -681,7 +681,7 @@
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>0.8184686303138733</v>
+        <v>0.914711594581604</v>
       </c>
     </row>
     <row r="28">
@@ -690,7 +690,7 @@
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>0.7948344945907593</v>
+        <v>0.8859467506408691</v>
       </c>
     </row>
     <row r="29">
@@ -699,7 +699,7 @@
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>0.7710702419281006</v>
+        <v>0.8571861982345581</v>
       </c>
     </row>
     <row r="30">
@@ -816,7 +816,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>0.5175940990447998</v>
+        <v>0.5034762620925903</v>
       </c>
     </row>
     <row r="43">
@@ -825,7 +825,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>0.5644533038139343</v>
+        <v>0.5083904266357422</v>
       </c>
     </row>
     <row r="44">
@@ -834,7 +834,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>0.6061815619468689</v>
+        <v>0.4550679922103882</v>
       </c>
     </row>
     <row r="45">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0.6501044631004333</v>
+        <v>0.2555379271507263</v>
       </c>
     </row>
     <row r="46">
@@ -852,7 +852,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>0.6911153793334961</v>
+        <v>0.2020496129989624</v>
       </c>
     </row>
     <row r="47">
@@ -1046,66 +1046,57 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="n">
-        <v>0.02429413795471191</v>
-      </c>
+        <v>2017</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.02550747618079185</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02550747618079185</v>
+        <v>0.01471138186752796</v>
       </c>
       <c r="C69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B70" t="n">
-        <v>0.01471138186752796</v>
+        <v>0.01765934005379677</v>
       </c>
       <c r="C70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B71" t="n">
-        <v>0.01765934005379677</v>
+        <v>0.01202032435685396</v>
       </c>
       <c r="C71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B72" t="n">
-        <v>0.01202032435685396</v>
+        <v>0.02255762368440628</v>
       </c>
       <c r="C72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02255762368440628</v>
+        <v>0.02449242398142815</v>
       </c>
       <c r="C73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.02449242398142815</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
